--- a/07 - 프로젝트/07-1 - 기능 및 테이블/기능 정의.xlsx
+++ b/07 - 프로젝트/07-1 - 기능 및 테이블/기능 정의.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="343" yWindow="43" windowWidth="18497" windowHeight="11006"/>
+    <workbookView xWindow="345" yWindow="45" windowWidth="18495" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>구분</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>해시태그로 게시글 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 상황</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, pw, nick, name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -259,22 +283,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,144 +605,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -742,7 +785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,7 +798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
